--- a/DMSNewVSale_2025-11-04_18-58.xlsx
+++ b/DMSNewVSale_2025-11-04_18-58.xlsx
@@ -251,6 +251,12 @@
     <t>30.0000</t>
   </si>
   <si>
+    <t>HEPAMARIN 140MG 30 CAPSULE</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
     <t xml:space="preserve">IVY PRONT  SYRUP</t>
   </si>
   <si>
@@ -284,6 +290,12 @@
     <t>4:0</t>
   </si>
   <si>
+    <t>KIDMIN IV SOL. 250 ML</t>
+  </si>
+  <si>
+    <t>138.0000</t>
+  </si>
+  <si>
     <t>LINAROSE CAPS</t>
   </si>
   <si>
@@ -581,13 +593,10 @@
     <t>سرنجات انسولين</t>
   </si>
   <si>
-    <t>189:0</t>
+    <t>187:0</t>
   </si>
   <si>
     <t>7.00</t>
-  </si>
-  <si>
-    <t>14.0000</t>
   </si>
   <si>
     <t>سيتي بيبي رقم 5</t>
@@ -1928,13 +1937,13 @@
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
       <c t="s" r="H26" s="9">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I26" s="9"/>
       <c r="J26" s="9"/>
       <c r="K26" s="9"/>
       <c t="s" r="L26" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M26" s="10"/>
       <c t="s" r="N26" s="8">
@@ -1942,10 +1951,10 @@
       </c>
       <c r="O26" s="8"/>
       <c t="s" r="P26" s="11">
-        <v>82</v>
+        <v>41</v>
       </c>
       <c t="s" r="Q26" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" ht="25.5" customHeight="1">
@@ -1954,28 +1963,28 @@
       </c>
       <c r="B27" s="7"/>
       <c t="s" r="C27" s="8">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D27" s="8"/>
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
       <c r="G27" s="8"/>
       <c t="s" r="H27" s="9">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="I27" s="9"/>
       <c r="J27" s="9"/>
       <c r="K27" s="9"/>
       <c t="s" r="L27" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M27" s="10"/>
       <c t="s" r="N27" s="8">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="O27" s="8"/>
       <c t="s" r="P27" s="11">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c t="s" r="Q27" s="12">
         <v>15</v>
@@ -1987,7 +1996,7 @@
       </c>
       <c r="B28" s="7"/>
       <c t="s" r="C28" s="8">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
@@ -2004,14 +2013,14 @@
       </c>
       <c r="M28" s="10"/>
       <c t="s" r="N28" s="8">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O28" s="8"/>
       <c t="s" r="P28" s="11">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c t="s" r="Q28" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" ht="25.5" customHeight="1">
@@ -2020,14 +2029,14 @@
       </c>
       <c r="B29" s="7"/>
       <c t="s" r="C29" s="8">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
       <c r="G29" s="8"/>
       <c t="s" r="H29" s="9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="9"/>
@@ -2037,14 +2046,14 @@
       </c>
       <c r="M29" s="10"/>
       <c t="s" r="N29" s="8">
-        <v>55</v>
+        <v>89</v>
       </c>
       <c r="O29" s="8"/>
       <c t="s" r="P29" s="11">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c t="s" r="Q29" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" ht="24.75" customHeight="1">
@@ -2060,24 +2069,24 @@
       <c r="F30" s="8"/>
       <c r="G30" s="8"/>
       <c t="s" r="H30" s="9">
-        <v>11</v>
+        <v>92</v>
       </c>
       <c r="I30" s="9"/>
       <c r="J30" s="9"/>
       <c r="K30" s="9"/>
       <c t="s" r="L30" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M30" s="10"/>
       <c t="s" r="N30" s="8">
-        <v>92</v>
+        <v>55</v>
       </c>
       <c r="O30" s="8"/>
       <c t="s" r="P30" s="11">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q30" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" ht="25.5" customHeight="1">
@@ -2086,14 +2095,14 @@
       </c>
       <c r="B31" s="7"/>
       <c t="s" r="C31" s="8">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
       <c r="G31" s="8"/>
       <c t="s" r="H31" s="9">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="I31" s="9"/>
       <c r="J31" s="9"/>
@@ -2103,14 +2112,14 @@
       </c>
       <c r="M31" s="10"/>
       <c t="s" r="N31" s="8">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="O31" s="8"/>
       <c t="s" r="P31" s="11">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c t="s" r="Q31" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" ht="25.5" customHeight="1">
@@ -2119,31 +2128,31 @@
       </c>
       <c r="B32" s="7"/>
       <c t="s" r="C32" s="8">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
       <c r="G32" s="8"/>
       <c t="s" r="H32" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I32" s="9"/>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
       <c t="s" r="L32" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M32" s="10"/>
       <c t="s" r="N32" s="8">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="O32" s="8"/>
       <c t="s" r="P32" s="11">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c t="s" r="Q32" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" ht="24.75" customHeight="1">
@@ -2152,14 +2161,14 @@
       </c>
       <c r="B33" s="7"/>
       <c t="s" r="C33" s="8">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
       <c r="G33" s="8"/>
       <c t="s" r="H33" s="9">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I33" s="9"/>
       <c r="J33" s="9"/>
@@ -2169,11 +2178,11 @@
       </c>
       <c r="M33" s="10"/>
       <c t="s" r="N33" s="8">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="O33" s="8"/>
       <c t="s" r="P33" s="11">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c t="s" r="Q33" s="12">
         <v>11</v>
@@ -2185,14 +2194,14 @@
       </c>
       <c r="B34" s="7"/>
       <c t="s" r="C34" s="8">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
       <c r="G34" s="8"/>
       <c t="s" r="H34" s="9">
-        <v>103</v>
+        <v>15</v>
       </c>
       <c r="I34" s="9"/>
       <c r="J34" s="9"/>
@@ -2202,14 +2211,14 @@
       </c>
       <c r="M34" s="10"/>
       <c t="s" r="N34" s="8">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O34" s="8"/>
       <c t="s" r="P34" s="11">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q34" s="12">
-        <v>77</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" ht="24.75" customHeight="1">
@@ -2218,14 +2227,14 @@
       </c>
       <c r="B35" s="7"/>
       <c t="s" r="C35" s="8">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
       <c r="G35" s="8"/>
       <c t="s" r="H35" s="9">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="I35" s="9"/>
       <c r="J35" s="9"/>
@@ -2235,11 +2244,11 @@
       </c>
       <c r="M35" s="10"/>
       <c t="s" r="N35" s="8">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="O35" s="8"/>
       <c t="s" r="P35" s="11">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c t="s" r="Q35" s="12">
         <v>11</v>
@@ -2251,14 +2260,14 @@
       </c>
       <c r="B36" s="7"/>
       <c t="s" r="C36" s="8">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
       <c r="G36" s="8"/>
       <c t="s" r="H36" s="9">
-        <v>15</v>
+        <v>107</v>
       </c>
       <c r="I36" s="9"/>
       <c r="J36" s="9"/>
@@ -2268,14 +2277,14 @@
       </c>
       <c r="M36" s="10"/>
       <c t="s" r="N36" s="8">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="O36" s="8"/>
       <c t="s" r="P36" s="11">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c t="s" r="Q36" s="12">
-        <v>11</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" ht="25.5" customHeight="1">
@@ -2284,14 +2293,14 @@
       </c>
       <c r="B37" s="7"/>
       <c t="s" r="C37" s="8">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
       <c t="s" r="H37" s="9">
-        <v>113</v>
+        <v>33</v>
       </c>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
@@ -2301,11 +2310,11 @@
       </c>
       <c r="M37" s="10"/>
       <c t="s" r="N37" s="8">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="O37" s="8"/>
       <c t="s" r="P37" s="11">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c t="s" r="Q37" s="12">
         <v>11</v>
@@ -2317,14 +2326,14 @@
       </c>
       <c r="B38" s="7"/>
       <c t="s" r="C38" s="8">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
       <c t="s" r="H38" s="9">
-        <v>117</v>
+        <v>15</v>
       </c>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
@@ -2334,11 +2343,11 @@
       </c>
       <c r="M38" s="10"/>
       <c t="s" r="N38" s="8">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="O38" s="8"/>
       <c t="s" r="P38" s="11">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c t="s" r="Q38" s="12">
         <v>11</v>
@@ -2350,14 +2359,14 @@
       </c>
       <c r="B39" s="7"/>
       <c t="s" r="C39" s="8">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c t="s" r="H39" s="9">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
@@ -2367,14 +2376,14 @@
       </c>
       <c r="M39" s="10"/>
       <c t="s" r="N39" s="8">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="O39" s="8"/>
       <c t="s" r="P39" s="11">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q39" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" ht="24.75" customHeight="1">
@@ -2383,14 +2392,14 @@
       </c>
       <c r="B40" s="7"/>
       <c t="s" r="C40" s="8">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
       <c t="s" r="H40" s="9">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
@@ -2400,11 +2409,11 @@
       </c>
       <c r="M40" s="10"/>
       <c t="s" r="N40" s="8">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="O40" s="8"/>
       <c t="s" r="P40" s="11">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c t="s" r="Q40" s="12">
         <v>11</v>
@@ -2416,7 +2425,7 @@
       </c>
       <c r="B41" s="7"/>
       <c t="s" r="C41" s="8">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
@@ -2433,14 +2442,14 @@
       </c>
       <c r="M41" s="10"/>
       <c t="s" r="N41" s="8">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="O41" s="8"/>
       <c t="s" r="P41" s="11">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c t="s" r="Q41" s="12">
-        <v>28</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2449,14 +2458,14 @@
       </c>
       <c r="B42" s="7"/>
       <c t="s" r="C42" s="8">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="8"/>
       <c t="s" r="H42" s="9">
-        <v>129</v>
+        <v>77</v>
       </c>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
@@ -2466,14 +2475,14 @@
       </c>
       <c r="M42" s="10"/>
       <c t="s" r="N42" s="8">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="O42" s="8"/>
       <c t="s" r="P42" s="11">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c t="s" r="Q42" s="12">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="43" ht="24.75" customHeight="1">
@@ -2482,31 +2491,31 @@
       </c>
       <c r="B43" s="7"/>
       <c t="s" r="C43" s="8">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
       <c t="s" r="H43" s="9">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
       <c r="K43" s="9"/>
       <c t="s" r="L43" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M43" s="10"/>
       <c t="s" r="N43" s="8">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="O43" s="8"/>
       <c t="s" r="P43" s="11">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c t="s" r="Q43" s="12">
-        <v>15</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" ht="25.5" customHeight="1">
@@ -2515,14 +2524,14 @@
       </c>
       <c r="B44" s="7"/>
       <c t="s" r="C44" s="8">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
       <c r="G44" s="8"/>
       <c t="s" r="H44" s="9">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
@@ -2532,14 +2541,14 @@
       </c>
       <c r="M44" s="10"/>
       <c t="s" r="N44" s="8">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="O44" s="8"/>
       <c t="s" r="P44" s="11">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c t="s" r="Q44" s="12">
-        <v>11</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45" ht="24.75" customHeight="1">
@@ -2548,28 +2557,28 @@
       </c>
       <c r="B45" s="7"/>
       <c t="s" r="C45" s="8">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
       <c t="s" r="H45" s="9">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
       <c r="K45" s="9"/>
       <c t="s" r="L45" s="10">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="M45" s="10"/>
       <c t="s" r="N45" s="8">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="O45" s="8"/>
       <c t="s" r="P45" s="11">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c t="s" r="Q45" s="12">
         <v>15</v>
@@ -2581,14 +2590,14 @@
       </c>
       <c r="B46" s="7"/>
       <c t="s" r="C46" s="8">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
       <c r="G46" s="8"/>
       <c t="s" r="H46" s="9">
-        <v>103</v>
+        <v>140</v>
       </c>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
@@ -2598,14 +2607,14 @@
       </c>
       <c r="M46" s="10"/>
       <c t="s" r="N46" s="8">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="O46" s="8"/>
       <c t="s" r="P46" s="11">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q46" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="47" ht="25.5" customHeight="1">
@@ -2614,14 +2623,14 @@
       </c>
       <c r="B47" s="7"/>
       <c t="s" r="C47" s="8">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
       <c t="s" r="H47" s="9">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
@@ -2631,11 +2640,11 @@
       </c>
       <c r="M47" s="10"/>
       <c t="s" r="N47" s="8">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="O47" s="8"/>
       <c t="s" r="P47" s="11">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c t="s" r="Q47" s="12">
         <v>15</v>
@@ -2647,14 +2656,14 @@
       </c>
       <c r="B48" s="7"/>
       <c t="s" r="C48" s="8">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
       <c r="G48" s="8"/>
       <c t="s" r="H48" s="9">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
@@ -2664,11 +2673,11 @@
       </c>
       <c r="M48" s="10"/>
       <c t="s" r="N48" s="8">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="O48" s="8"/>
       <c t="s" r="P48" s="11">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q48" s="12">
         <v>15</v>
@@ -2680,14 +2689,14 @@
       </c>
       <c r="B49" s="7"/>
       <c t="s" r="C49" s="8">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
       <c t="s" r="H49" s="9">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
@@ -2697,14 +2706,14 @@
       </c>
       <c r="M49" s="10"/>
       <c t="s" r="N49" s="8">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="O49" s="8"/>
       <c t="s" r="P49" s="11">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q49" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" ht="24.75" customHeight="1">
@@ -2713,14 +2722,14 @@
       </c>
       <c r="B50" s="7"/>
       <c t="s" r="C50" s="8">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
       <c r="G50" s="8"/>
       <c t="s" r="H50" s="9">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
@@ -2730,14 +2739,14 @@
       </c>
       <c r="M50" s="10"/>
       <c t="s" r="N50" s="8">
-        <v>55</v>
+        <v>153</v>
       </c>
       <c r="O50" s="8"/>
       <c t="s" r="P50" s="11">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q50" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" ht="25.5" customHeight="1">
@@ -2746,14 +2755,14 @@
       </c>
       <c r="B51" s="7"/>
       <c t="s" r="C51" s="8">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
       <c t="s" r="H51" s="9">
-        <v>157</v>
+        <v>33</v>
       </c>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
@@ -2763,14 +2772,14 @@
       </c>
       <c r="M51" s="10"/>
       <c t="s" r="N51" s="8">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="O51" s="8"/>
       <c t="s" r="P51" s="11">
-        <v>99</v>
+        <v>157</v>
       </c>
       <c t="s" r="Q51" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2786,7 +2795,7 @@
       <c r="F52" s="8"/>
       <c r="G52" s="8"/>
       <c t="s" r="H52" s="9">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
@@ -2796,11 +2805,11 @@
       </c>
       <c r="M52" s="10"/>
       <c t="s" r="N52" s="8">
-        <v>159</v>
+        <v>55</v>
       </c>
       <c r="O52" s="8"/>
       <c t="s" r="P52" s="11">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q52" s="12">
         <v>11</v>
@@ -2819,7 +2828,7 @@
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
       <c t="s" r="H53" s="9">
-        <v>15</v>
+        <v>161</v>
       </c>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
@@ -2829,14 +2838,14 @@
       </c>
       <c r="M53" s="10"/>
       <c t="s" r="N53" s="8">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="O53" s="8"/>
       <c t="s" r="P53" s="11">
-        <v>162</v>
+        <v>103</v>
       </c>
       <c t="s" r="Q53" s="12">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" ht="25.5" customHeight="1">
@@ -2845,14 +2854,14 @@
       </c>
       <c r="B54" s="7"/>
       <c t="s" r="C54" s="8">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
       <c r="G54" s="8"/>
       <c t="s" r="H54" s="9">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
@@ -2862,14 +2871,14 @@
       </c>
       <c r="M54" s="10"/>
       <c t="s" r="N54" s="8">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="O54" s="8"/>
       <c t="s" r="P54" s="11">
-        <v>165</v>
+        <v>148</v>
       </c>
       <c t="s" r="Q54" s="12">
-        <v>46</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="24.75" customHeight="1">
@@ -2878,14 +2887,14 @@
       </c>
       <c r="B55" s="7"/>
       <c t="s" r="C55" s="8">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
       <c r="G55" s="8"/>
       <c t="s" r="H55" s="9">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
@@ -2895,14 +2904,14 @@
       </c>
       <c r="M55" s="10"/>
       <c t="s" r="N55" s="8">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="O55" s="8"/>
       <c t="s" r="P55" s="11">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c t="s" r="Q55" s="12">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="56" ht="25.5" customHeight="1">
@@ -2911,14 +2920,14 @@
       </c>
       <c r="B56" s="7"/>
       <c t="s" r="C56" s="8">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
       <c r="G56" s="8"/>
       <c t="s" r="H56" s="9">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
@@ -2928,14 +2937,14 @@
       </c>
       <c r="M56" s="10"/>
       <c t="s" r="N56" s="8">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="O56" s="8"/>
       <c t="s" r="P56" s="11">
         <v>169</v>
       </c>
       <c t="s" r="Q56" s="12">
-        <v>15</v>
+        <v>46</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2951,24 +2960,24 @@
       <c r="F57" s="8"/>
       <c r="G57" s="8"/>
       <c t="s" r="H57" s="9">
-        <v>171</v>
+        <v>64</v>
       </c>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
       <c r="K57" s="9"/>
       <c t="s" r="L57" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M57" s="10"/>
       <c t="s" r="N57" s="8">
-        <v>172</v>
+        <v>99</v>
       </c>
       <c r="O57" s="8"/>
       <c t="s" r="P57" s="11">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c t="s" r="Q57" s="12">
-        <v>174</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" ht="24.75" customHeight="1">
@@ -2977,28 +2986,28 @@
       </c>
       <c r="B58" s="7"/>
       <c t="s" r="C58" s="8">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="8"/>
       <c t="s" r="H58" s="9">
-        <v>176</v>
+        <v>107</v>
       </c>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
       <c r="K58" s="9"/>
       <c t="s" r="L58" s="10">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="M58" s="10"/>
       <c t="s" r="N58" s="8">
-        <v>172</v>
+        <v>51</v>
       </c>
       <c r="O58" s="8"/>
       <c t="s" r="P58" s="11">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c t="s" r="Q58" s="12">
         <v>15</v>
@@ -3010,14 +3019,14 @@
       </c>
       <c r="B59" s="7"/>
       <c t="s" r="C59" s="8">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
       <c r="G59" s="8"/>
       <c t="s" r="H59" s="9">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
@@ -3027,14 +3036,14 @@
       </c>
       <c r="M59" s="10"/>
       <c t="s" r="N59" s="8">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="O59" s="8"/>
       <c t="s" r="P59" s="11">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c t="s" r="Q59" s="12">
-        <v>15</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" ht="24.75" customHeight="1">
@@ -3043,14 +3052,14 @@
       </c>
       <c r="B60" s="7"/>
       <c t="s" r="C60" s="8">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
       <c r="G60" s="8"/>
       <c t="s" r="H60" s="9">
-        <v>64</v>
+        <v>180</v>
       </c>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
@@ -3060,11 +3069,11 @@
       </c>
       <c r="M60" s="10"/>
       <c t="s" r="N60" s="8">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O60" s="8"/>
       <c t="s" r="P60" s="11">
-        <v>115</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q60" s="12">
         <v>15</v>
@@ -3076,14 +3085,14 @@
       </c>
       <c r="B61" s="7"/>
       <c t="s" r="C61" s="8">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="8"/>
       <c t="s" r="H61" s="9">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
@@ -3093,14 +3102,14 @@
       </c>
       <c r="M61" s="10"/>
       <c t="s" r="N61" s="8">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O61" s="8"/>
       <c t="s" r="P61" s="11">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c t="s" r="Q61" s="12">
-        <v>186</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -3109,7 +3118,7 @@
       </c>
       <c r="B62" s="7"/>
       <c t="s" r="C62" s="8">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
@@ -3126,14 +3135,14 @@
       </c>
       <c r="M62" s="10"/>
       <c t="s" r="N62" s="8">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="O62" s="8"/>
       <c t="s" r="P62" s="11">
-        <v>155</v>
+        <v>119</v>
       </c>
       <c t="s" r="Q62" s="12">
-        <v>103</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" ht="24.75" customHeight="1">
@@ -3142,14 +3151,14 @@
       </c>
       <c r="B63" s="7"/>
       <c t="s" r="C63" s="8">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
       <c r="G63" s="8"/>
       <c t="s" r="H63" s="9">
-        <v>190</v>
+        <v>64</v>
       </c>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
@@ -3159,14 +3168,14 @@
       </c>
       <c r="M63" s="10"/>
       <c t="s" r="N63" s="8">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="O63" s="8"/>
       <c t="s" r="P63" s="11">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c t="s" r="Q63" s="12">
-        <v>21</v>
+        <v>190</v>
       </c>
     </row>
     <row r="64" ht="25.5" customHeight="1">
@@ -3175,14 +3184,14 @@
       </c>
       <c r="B64" s="7"/>
       <c t="s" r="C64" s="8">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
       <c r="G64" s="8"/>
       <c t="s" r="H64" s="9">
-        <v>15</v>
+        <v>64</v>
       </c>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
@@ -3192,14 +3201,14 @@
       </c>
       <c r="M64" s="10"/>
       <c t="s" r="N64" s="8">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="O64" s="8"/>
       <c t="s" r="P64" s="11">
-        <v>195</v>
+        <v>159</v>
       </c>
       <c t="s" r="Q64" s="12">
-        <v>15</v>
+        <v>107</v>
       </c>
     </row>
     <row r="65" ht="24.75" customHeight="1">
@@ -3208,14 +3217,14 @@
       </c>
       <c r="B65" s="7"/>
       <c t="s" r="C65" s="8">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="8"/>
       <c t="s" r="H65" s="9">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
@@ -3225,14 +3234,14 @@
       </c>
       <c r="M65" s="10"/>
       <c t="s" r="N65" s="8">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="O65" s="8"/>
       <c t="s" r="P65" s="11">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c t="s" r="Q65" s="12">
-        <v>15</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" ht="25.5" customHeight="1">
@@ -3241,14 +3250,14 @@
       </c>
       <c r="B66" s="7"/>
       <c t="s" r="C66" s="8">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
       <c r="G66" s="8"/>
       <c t="s" r="H66" s="9">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
@@ -3258,11 +3267,11 @@
       </c>
       <c r="M66" s="10"/>
       <c t="s" r="N66" s="8">
-        <v>146</v>
+        <v>197</v>
       </c>
       <c r="O66" s="8"/>
       <c t="s" r="P66" s="11">
-        <v>147</v>
+        <v>198</v>
       </c>
       <c t="s" r="Q66" s="12">
         <v>15</v>
@@ -3274,14 +3283,14 @@
       </c>
       <c r="B67" s="7"/>
       <c t="s" r="C67" s="8">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
       <c r="G67" s="8"/>
       <c t="s" r="H67" s="9">
-        <v>64</v>
+        <v>161</v>
       </c>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
@@ -3291,11 +3300,11 @@
       </c>
       <c r="M67" s="10"/>
       <c t="s" r="N67" s="8">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="O67" s="8"/>
       <c t="s" r="P67" s="11">
-        <v>200</v>
+        <v>181</v>
       </c>
       <c t="s" r="Q67" s="12">
         <v>15</v>
@@ -3307,14 +3316,14 @@
       </c>
       <c r="B68" s="7"/>
       <c t="s" r="C68" s="8">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
       <c r="G68" s="8"/>
       <c t="s" r="H68" s="9">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
@@ -3324,11 +3333,11 @@
       </c>
       <c r="M68" s="10"/>
       <c t="s" r="N68" s="8">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="O68" s="8"/>
       <c t="s" r="P68" s="11">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c t="s" r="Q68" s="12">
         <v>15</v>
@@ -3340,14 +3349,14 @@
       </c>
       <c r="B69" s="7"/>
       <c t="s" r="C69" s="8">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
       <c r="G69" s="8"/>
       <c t="s" r="H69" s="9">
-        <v>204</v>
+        <v>64</v>
       </c>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
@@ -3357,11 +3366,11 @@
       </c>
       <c r="M69" s="10"/>
       <c t="s" r="N69" s="8">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="O69" s="8"/>
       <c t="s" r="P69" s="11">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c t="s" r="Q69" s="12">
         <v>15</v>
@@ -3373,14 +3382,14 @@
       </c>
       <c r="B70" s="7"/>
       <c t="s" r="C70" s="8">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D70" s="8"/>
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
       <c r="G70" s="8"/>
       <c t="s" r="H70" s="9">
-        <v>208</v>
+        <v>64</v>
       </c>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
@@ -3390,11 +3399,11 @@
       </c>
       <c r="M70" s="10"/>
       <c t="s" r="N70" s="8">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="O70" s="8"/>
       <c t="s" r="P70" s="11">
-        <v>210</v>
+        <v>141</v>
       </c>
       <c t="s" r="Q70" s="12">
         <v>15</v>
@@ -3406,14 +3415,14 @@
       </c>
       <c r="B71" s="7"/>
       <c t="s" r="C71" s="8">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
       <c r="G71" s="8"/>
       <c t="s" r="H71" s="9">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
@@ -3423,51 +3432,117 @@
       </c>
       <c r="M71" s="10"/>
       <c t="s" r="N71" s="8">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="O71" s="8"/>
       <c t="s" r="P71" s="11">
+        <v>209</v>
+      </c>
+      <c t="s" r="Q71" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" ht="25.5" customHeight="1">
+      <c r="A72" s="7">
+        <v>66</v>
+      </c>
+      <c r="B72" s="7"/>
+      <c t="s" r="C72" s="8">
+        <v>210</v>
+      </c>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
+      <c r="G72" s="8"/>
+      <c t="s" r="H72" s="9">
+        <v>211</v>
+      </c>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c t="s" r="L72" s="10">
+        <v>12</v>
+      </c>
+      <c r="M72" s="10"/>
+      <c t="s" r="N72" s="8">
+        <v>212</v>
+      </c>
+      <c r="O72" s="8"/>
+      <c t="s" r="P72" s="11">
+        <v>213</v>
+      </c>
+      <c t="s" r="Q72" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="73" ht="24.75" customHeight="1">
+      <c r="A73" s="7">
+        <v>67</v>
+      </c>
+      <c r="B73" s="7"/>
+      <c t="s" r="C73" s="8">
+        <v>214</v>
+      </c>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c t="s" r="H73" s="9">
+        <v>215</v>
+      </c>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c t="s" r="L73" s="10">
+        <v>12</v>
+      </c>
+      <c r="M73" s="10"/>
+      <c t="s" r="N73" s="8">
+        <v>78</v>
+      </c>
+      <c r="O73" s="8"/>
+      <c t="s" r="P73" s="11">
         <v>79</v>
       </c>
-      <c t="s" r="Q71" s="12">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" ht="26.25" customHeight="1">
-      <c r="N72" s="13">
-        <v>3884.0799999999999</v>
-      </c>
-      <c r="O72" s="13"/>
-      <c r="P72" s="13"/>
-      <c r="Q72" s="13"/>
-    </row>
-    <row r="73" ht="16.5" customHeight="1">
-      <c t="s" r="A73" s="14">
-        <v>213</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
-      <c r="F73" s="14"/>
-      <c t="s" r="G73" s="15">
-        <v>214</v>
-      </c>
-      <c r="H73" s="15"/>
-      <c r="I73" s="15"/>
-      <c r="J73" s="16"/>
-      <c t="s" r="K73" s="17">
-        <v>215</v>
-      </c>
-      <c r="L73" s="17"/>
-      <c r="M73" s="17"/>
-      <c r="N73" s="17"/>
-      <c r="O73" s="17"/>
-      <c r="P73" s="17"/>
-      <c r="Q73" s="17"/>
+      <c t="s" r="Q73" s="12">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" ht="26.25" customHeight="1">
+      <c r="N74" s="13">
+        <v>4085.5799999999999</v>
+      </c>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" ht="16.5" customHeight="1">
+      <c t="s" r="A75" s="14">
+        <v>216</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+      <c t="s" r="G75" s="15">
+        <v>217</v>
+      </c>
+      <c r="H75" s="15"/>
+      <c r="I75" s="15"/>
+      <c r="J75" s="16"/>
+      <c t="s" r="K75" s="17">
+        <v>218</v>
+      </c>
+      <c r="L75" s="17"/>
+      <c r="M75" s="17"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="337">
+  <mergeCells count="347">
     <mergeCell ref="D2:N2"/>
     <mergeCell ref="A3:Q3"/>
     <mergeCell ref="F4:H4"/>
@@ -3801,10 +3876,20 @@
     <mergeCell ref="H71:K71"/>
     <mergeCell ref="L71:M71"/>
     <mergeCell ref="N71:O71"/>
-    <mergeCell ref="N72:Q72"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="G73:I73"/>
-    <mergeCell ref="K73:Q73"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="C72:G72"/>
+    <mergeCell ref="H72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="C73:G73"/>
+    <mergeCell ref="H73:K73"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="N74:Q74"/>
+    <mergeCell ref="A75:F75"/>
+    <mergeCell ref="G75:I75"/>
+    <mergeCell ref="K75:Q75"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
